--- a/biology/Botanique/Grenadier_(pomme)/Grenadier_(pomme).xlsx
+++ b/biology/Botanique/Grenadier_(pomme)/Grenadier_(pomme).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La pomme Grenadier est une variété de pomme découverte en Angleterre vers 1860[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La pomme Grenadier est une variété de pomme découverte en Angleterre vers 1860.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La Grenadier est une pomme à cuire moyenne à grosse, vert pâle à jaune au goût acidulé.
-Précoce et fertile, elle est mature d'août à septembre[2].
+Précoce et fertile, elle est mature d'août à septembre.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La pomme Grenadier supporte toutes formes, est très peu sensible aux tavelures et au chancre, moyennement sensible à l'oïdium et au point liégeux.
 Elle est partiellement autofertile mais est mieux pollinisée par d'autres variétés comme la James Grieve, la Cox's Orange Pippin, la Golden Delicious, la Kandil Sinap ou la Peasgood's Nonsuch. C'est une bonne pollinisatrice pour de nombreuses variétés.
